--- a/data/Hysteresis_2.xlsx
+++ b/data/Hysteresis_2.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/gaston_mendozaveirana_ugent_be/Documents/Documentos/PhD/Codes/IOP_Pedotransfer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/gaston_mendozaveirana_ugent_be/Documents/Documentos/PhD/Magnetics/Magnetism_code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E17458-4AF2-4AE0-9EB5-E19AC30C65AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E6E17458-4AF2-4AE0-9EB5-E19AC30C65AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158B0C37-33BE-4C80-9069-B8A2F86E7B32}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-6450" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj75EEhldTufI+jT+VC16NemFj0sw=="/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="404">
   <si>
     <t>SAMPLE</t>
   </si>
@@ -1231,6 +1242,12 @@
   </si>
   <si>
     <t>Mmax</t>
+  </si>
+  <si>
+    <t>hoeke 7</t>
+  </si>
+  <si>
+    <t>valte n7</t>
   </si>
 </sst>
 </file>
@@ -1240,11 +1257,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1264,13 +1288,26 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1300,15 +1337,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,17 +1570,17 @@
   <dimension ref="A1:EP1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="146" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="146" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +2017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1993,26 +2036,26 @@
       <c r="F2" s="2">
         <v>1.4121999999999999E-2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>296.61700000000002</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>84.307000000000002</v>
       </c>
       <c r="I2" s="2">
         <f>731.417*0.00001</f>
         <v>7.3141700000000009E-3</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>0.10920000000000001</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2">
         <v>9078.99</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <v>2.419</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2">
         <v>0.13600000000000001</v>
       </c>
       <c r="N2" s="2">
@@ -2415,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2434,25 +2477,25 @@
       <c r="F3" s="2">
         <v>1.5592999999999999E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>301.92500000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>89.227000000000004</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>8.9101200000000005E-3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <v>0.11115</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <v>9000.9599999999991</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3">
         <v>2.72</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3">
         <v>0.123</v>
       </c>
       <c r="N3" s="2">
@@ -2855,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2874,25 +2917,25 @@
       <c r="F4" s="2">
         <v>1.4929E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>231.27</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>63.185000000000002</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>6.1668599999999997E-3</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <v>0.10903</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <v>9002.65</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4">
         <v>2.3130000000000002</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4">
         <v>0.17399999999999999</v>
       </c>
       <c r="N4" s="2">
@@ -3295,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3314,26 +3357,26 @@
       <c r="F5" s="2">
         <v>1.2248999999999999E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>325.15199999999999</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>87.558000000000007</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>7.6576700000000001E-3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <f>10.933*0.01</f>
         <v>0.10933</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>9157.7800000000007</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>2.7690000000000001</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5">
         <v>0.104</v>
       </c>
       <c r="N5" s="2">
@@ -3736,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3755,25 +3798,25 @@
       <c r="F6" s="2">
         <v>7.9439999999999997E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>290.988</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>76.966999999999999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>4.8115199999999997E-3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>8.6110000000000006E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>9296.02</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6">
         <v>1.708</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6">
         <v>0.155</v>
       </c>
       <c r="N6" s="2">
@@ -4176,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4195,25 +4238,25 @@
       <c r="F7" s="2">
         <v>5.9680000000000002E-3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>414.93799999999999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>81.311000000000007</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>3.3391699999999998E-3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>9356.64</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>1.405</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7">
         <v>0.112</v>
       </c>
       <c r="N7" s="2">
@@ -4616,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4635,26 +4678,26 @@
       <c r="F8" s="2">
         <v>4.2789999999999998E-3</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>550.64499999999998</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <v>89.620999999999995</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>2.3665800000000001E-3</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <f>9.005*0.01</f>
         <v>9.0050000000000005E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>9390.19</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8">
         <v>1.038</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="N8" s="2">
@@ -5057,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5076,25 +5119,25 @@
       <c r="F9" s="2">
         <v>7.62E-3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>564.02599999999995</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>88.22</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>3.4349599999999999E-3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>0.13070999999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>9376.59</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9">
         <v>1.77</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="N9" s="2">
@@ -5497,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5516,27 +5559,27 @@
       <c r="F10" s="2">
         <v>4.6090000000000002E-3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>338.096</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>78.734999999999999</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>2.9471699999999998E-3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <f>13.687*0.01</f>
         <v>0.13686999999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>9427.07</v>
       </c>
       <c r="L10" s="2">
         <f>913.143*0.01</f>
         <v>9.1314299999999999</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
         <v>0.13600000000000001</v>
       </c>
       <c r="N10" s="2">
@@ -5939,7 +5982,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5958,25 +6001,25 @@
       <c r="F11" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>376.20499999999998</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>83.617000000000004</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>2.8406099999999999E-3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>0.13586000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>9429.33</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11">
         <v>8.6253100000000007</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11">
         <v>0.13</v>
       </c>
       <c r="N11" s="2">
@@ -6379,7 +6422,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6398,26 +6441,26 @@
       <c r="F12" s="2">
         <v>4.6130000000000008E-3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>374.12099999999998</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>82.700999999999993</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <v>2.4881E-3</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>0.12027</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>9448.8799999999992</v>
       </c>
       <c r="L12" s="2">
         <f>956.529*0.01</f>
         <v>9.565290000000001</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12">
         <v>0.128</v>
       </c>
       <c r="N12" s="2">
@@ -6820,7 +6863,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6839,25 +6882,25 @@
       <c r="F13" s="2">
         <v>2.3839999999999998E-3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>418.36399999999998</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>72.965000000000003</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>1.6488E-3</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>0.12273000000000001</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>9470.1200000000008</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>5.3917900000000003</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>0.11899999999999999</v>
       </c>
       <c r="N13" s="2">
@@ -7260,7 +7303,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7279,26 +7322,26 @@
       <c r="F14" s="2">
         <v>2.2279999999999999E-3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>455.524</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>79.575999999999993</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <v>1.6087199999999999E-3</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <f>10.358*0.01</f>
         <v>0.10358000000000001</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>9460.16</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14">
         <v>5.30924</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>0.106</v>
       </c>
       <c r="N14" s="2">
@@ -7701,7 +7744,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7720,26 +7763,26 @@
       <c r="F15" s="2">
         <v>2.0839999999999999E-3</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>487.06299999999999</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>67.649000000000001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>1.3660499999999999E-3</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>0.12253</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>9483.64</v>
       </c>
       <c r="L15" s="2">
         <f>683.699*0.01</f>
         <v>6.8369900000000001</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>9.4E-2</v>
       </c>
       <c r="N15" s="2">
@@ -8142,7 +8185,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8161,27 +8204,27 @@
       <c r="F16" s="2">
         <v>1.6720000000000001E-3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>468.29899999999998</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>56.978000000000002</v>
       </c>
       <c r="I16" s="2">
         <f>100.441*0.00001</f>
         <v>1.0044100000000001E-3</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>0.11332</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
         <v>9465.2000000000007</v>
       </c>
       <c r="L16" s="2">
         <f>310.705*0.01</f>
         <v>3.1070500000000001</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="N16" s="2">
@@ -8584,7 +8627,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="17" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8603,10 +8646,10 @@
       <c r="F17" s="2">
         <v>1.2434000000000001E-2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17">
         <v>289.59399999999999</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>64.247</v>
       </c>
       <c r="I17" s="2">
@@ -8617,13 +8660,13 @@
         <f>29.889*0.01</f>
         <v>0.29888999999999999</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <v>9424.17</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17">
         <v>2.6680000000000001</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17">
         <v>0.15</v>
       </c>
       <c r="N17" s="2">
@@ -9026,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9045,26 +9088,26 @@
       <c r="F18" s="2">
         <v>1.1795999999999999E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18">
         <v>172.66</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18">
         <v>8.7850000000000001</v>
       </c>
       <c r="I18" s="2">
         <f>65.288*0.00001</f>
         <v>6.5288E-4</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <v>0.35066999999999998</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18">
         <v>9605</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18">
         <v>4.7050000000000001</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18">
         <v>0.1</v>
       </c>
       <c r="N18" s="2">
@@ -9467,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9486,26 +9529,26 @@
       <c r="F19" s="2">
         <v>2.8180000000000002E-3</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19">
         <v>629.73</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <v>45.671999999999997</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19">
         <v>1.68267E-3</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>0.28462999999999999</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19">
         <v>9478.5499999999993</v>
       </c>
       <c r="L19" s="2">
         <f>850.378*0.01</f>
         <v>8.5037800000000008</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19">
         <v>6.2E-2</v>
       </c>
       <c r="N19" s="2">
@@ -9908,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:146" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9927,25 +9970,25 @@
       <c r="F20" s="2">
         <v>3.444E-3</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20">
         <v>476.37099999999998</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20">
         <v>24.928000000000001</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20">
         <v>1.0602599999999999E-3</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20">
         <v>0.32474999999999998</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20">
         <v>9485.9699999999993</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20">
         <v>8.1097699999999993</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20">
         <v>7.8E-2</v>
       </c>
       <c r="N20" s="2">
@@ -10348,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10367,26 +10410,26 @@
       <c r="F21" s="2">
         <v>2.862E-3</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>551.18700000000001</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>37.713000000000001</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21">
         <v>1.6218700000000001E-3</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21">
         <v>0.34237000000000001</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
         <v>9486.81</v>
       </c>
       <c r="L21" s="2">
         <f>655.917*0.01</f>
         <v>6.5591700000000008</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="N21" s="2">
@@ -10789,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -10808,26 +10851,26 @@
       <c r="F22" s="2">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22">
         <v>341.27600000000001</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
         <v>25.154</v>
       </c>
       <c r="I22" s="2">
         <f>73.713*0.00001</f>
         <v>7.3713000000000001E-4</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22">
         <v>0.19753999999999999</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22">
         <v>9492.68</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22">
         <v>0.27193000000000001</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="N22" s="2">
@@ -11230,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -11249,25 +11292,25 @@
       <c r="F23" s="2">
         <v>2.3969999999999998E-3</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23">
         <v>301.822</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23">
         <v>43.456000000000003</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23">
         <v>1.0762899999999999E-3</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23">
         <v>9.572E-2</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23">
         <v>9499.35</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23">
         <v>6.6638190000000002</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="N23" s="2">
@@ -11670,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -11689,10 +11732,10 @@
       <c r="F24" s="2">
         <v>9.2447799999999995E-4</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24">
         <v>402.96800000000002</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24">
         <v>-0.35599999999999998</v>
       </c>
       <c r="I24" s="2">
@@ -11703,14 +11746,14 @@
         <f>597*0.00001</f>
         <v>5.9700000000000005E-3</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24">
         <v>10000.57</v>
       </c>
       <c r="L24" s="2">
         <f>11.255*0.01</f>
         <v>0.11255000000000001</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24">
         <v>1.0429999999999999</v>
       </c>
       <c r="N24" s="2">
@@ -12113,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -12132,10 +12175,10 @@
       <c r="F25" s="2">
         <v>1.0388200000000001E-4</v>
       </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>-0.36699999999999999</v>
       </c>
       <c r="I25" s="2">
@@ -12146,14 +12189,14 @@
         <f>407.046*0.00001</f>
         <v>4.0704600000000006E-3</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25">
         <v>10000.56</v>
       </c>
       <c r="L25" s="2">
         <f>-8.897*0.01</f>
         <v>-8.8970000000000007E-2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25">
         <v>1.0249999999999999</v>
       </c>
       <c r="N25" s="2">
@@ -12556,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -12575,10 +12618,10 @@
       <c r="F26" s="2">
         <v>1.01499E-4</v>
       </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>-0.376</v>
       </c>
       <c r="I26" s="2">
@@ -12589,14 +12632,14 @@
         <f>877.082*0.00001</f>
         <v>8.7708200000000004E-3</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26">
         <v>10000.549999999999</v>
       </c>
       <c r="L26" s="2">
         <f>-227.629*0.01</f>
         <v>-2.2762899999999999</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26">
         <v>1.014</v>
       </c>
       <c r="N26" s="2">
@@ -12999,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -13018,10 +13061,10 @@
       <c r="F27" s="2">
         <v>8.3504000000000006E-5</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
         <v>22.257000000000001</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27">
         <v>0.61699999999999999</v>
       </c>
       <c r="I27" s="2">
@@ -13032,14 +13075,14 @@
         <f>993.708*0.00001</f>
         <v>9.9370800000000009E-3</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27">
         <v>9999.5499999999993</v>
       </c>
       <c r="L27" s="2">
         <f>-156.434*0.01</f>
         <v>-1.5643400000000001</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27">
         <v>1.0069999999999999</v>
       </c>
       <c r="N27" s="2">
@@ -13442,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -13461,25 +13504,25 @@
       <c r="F28" s="2">
         <v>7.1260000000000004E-3</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28">
         <v>251.48699999999999</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28">
         <v>71.313000000000002</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28">
         <v>3.5190600000000001E-3</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28">
         <v>9147.8700000000008</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28">
         <v>1.083</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28">
         <v>0.16300000000000001</v>
       </c>
       <c r="N28" s="2">
@@ -13882,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -13901,26 +13944,26 @@
       <c r="F29" s="2">
         <v>8.0890000000000007E-3</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29">
         <v>345.62799999999999</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29">
         <v>101.565</v>
       </c>
       <c r="I29" s="2">
         <f>429.16*0.00001</f>
         <v>4.2916000000000004E-3</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
         <v>5.9990000000000002E-2</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29">
         <v>9101.26</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29">
         <v>1.3140000000000001</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="N29" s="2">
@@ -14323,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14342,26 +14385,26 @@
       <c r="F30" s="2">
         <v>6.7400000000000003E-3</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30">
         <v>221.429</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30">
         <v>57.125</v>
       </c>
       <c r="I30" s="2">
         <f>278.926*0.00001</f>
         <v>2.78926E-3</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <v>7.5039999999999996E-2</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30">
         <v>9316.89</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30">
         <v>1.2849999999999999</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30">
         <v>0.12</v>
       </c>
       <c r="N30" s="2">
@@ -14764,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14783,26 +14826,26 @@
       <c r="F31" s="2">
         <v>2.5349999999999999E-3</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31">
         <v>361.15100000000001</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31">
         <v>70.882999999999996</v>
       </c>
       <c r="I31" s="2">
         <f>135.126*0.00001</f>
         <v>1.3512600000000002E-3</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <v>4.8250000000000001E-2</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31">
         <v>9384.0300000000007</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31">
         <v>0.37432199999999999</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31">
         <v>0.114</v>
       </c>
       <c r="N31" s="2">
@@ -15205,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -15224,10 +15267,10 @@
       <c r="F32" s="2">
         <v>1.903E-3</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32">
         <v>341.71899999999999</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32">
         <v>67.864000000000004</v>
       </c>
       <c r="I32" s="2">
@@ -15238,14 +15281,14 @@
         <f>3.959*0.01</f>
         <v>3.959E-2</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32">
         <v>9388.84</v>
       </c>
       <c r="L32" s="2">
         <f>388.617*0.01</f>
         <v>3.8861700000000003</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32">
         <v>0.13300000000000001</v>
       </c>
       <c r="N32" s="2">
@@ -15648,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -15667,27 +15710,27 @@
       <c r="F33" s="2">
         <v>1.3290000000000001E-3</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <v>364.601</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33">
         <v>88.558000000000007</v>
       </c>
       <c r="I33" s="2">
         <f>102.876*0.00001</f>
         <v>1.0287600000000001E-3</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33">
         <v>4.2770000000000002E-2</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33">
         <v>9438.36</v>
       </c>
       <c r="L33" s="2">
         <f>102.27*0.01</f>
         <v>1.0226999999999999</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="N33" s="2">
@@ -16090,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -16109,10 +16152,10 @@
       <c r="F34" s="2">
         <v>1.0859999999999999E-3</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34">
         <v>374.529</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34">
         <v>60.668999999999997</v>
       </c>
       <c r="I34" s="2">
@@ -16123,14 +16166,14 @@
         <f>4.26*0.01</f>
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34">
         <v>9441.06</v>
       </c>
       <c r="L34" s="2">
         <f>-411.731*0.01</f>
         <v>-4.1173099999999998</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34">
         <v>9.4E-2</v>
       </c>
       <c r="N34" s="2">
@@ -16533,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -16552,10 +16595,10 @@
       <c r="F35" s="2">
         <v>1.1100000000000001E-3</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35">
         <v>396.34300000000002</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35">
         <v>49.984999999999999</v>
       </c>
       <c r="I35" s="2">
@@ -16566,14 +16609,14 @@
         <f>5.54*0.01</f>
         <v>5.5400000000000005E-2</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35">
         <v>9481.0499999999993</v>
       </c>
       <c r="L35" s="2">
         <f>351.258*0.01</f>
         <v>3.5125799999999998</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35">
         <v>0.184</v>
       </c>
       <c r="N35" s="2">
@@ -16976,7 +17019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -16995,26 +17038,26 @@
       <c r="F36" s="2">
         <v>9.1120000000000003E-3</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36">
         <v>219.19800000000001</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36">
         <v>62.341999999999999</v>
       </c>
       <c r="I36" s="2">
         <f>397.463*0.00001</f>
         <v>3.9746300000000007E-3</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36">
         <v>7.7719999999999997E-2</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36">
         <v>9077.83</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36">
         <v>1.1160000000000001</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36">
         <v>0.126</v>
       </c>
       <c r="N36" s="2">
@@ -17417,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -17436,10 +17479,10 @@
       <c r="F37" s="2">
         <v>7.306E-3</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37">
         <v>262.464</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37">
         <v>77.043000000000006</v>
       </c>
       <c r="I37" s="2">
@@ -17450,14 +17493,14 @@
         <f>6.657*0.01</f>
         <v>6.6570000000000004E-2</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37">
         <v>9146.44</v>
       </c>
       <c r="L37" s="2">
         <f>114.267*0.01</f>
         <v>1.1426700000000001</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37">
         <v>0.14899999999999999</v>
       </c>
       <c r="N37" s="2">
@@ -17860,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -17879,25 +17922,25 @@
       <c r="F38" s="2">
         <v>8.8739999999999999E-3</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38">
         <v>250.52099999999999</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38">
         <v>74.221000000000004</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38">
         <v>5.1746400000000003E-3</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38">
         <v>6.719E-2</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38">
         <v>9035.8700000000008</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38">
         <v>1.681</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38">
         <v>0.19500000000000001</v>
       </c>
       <c r="N38" s="2">
@@ -18300,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -18319,27 +18362,27 @@
       <c r="F39" s="2">
         <v>1.335E-3</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39">
         <v>394.19499999999999</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39">
         <v>59.433999999999997</v>
       </c>
       <c r="I39" s="2">
         <f>97.019*0.00001</f>
         <v>9.7019000000000011E-4</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39">
         <v>7.2010000000000005E-2</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39">
         <v>9458</v>
       </c>
       <c r="L39" s="2">
         <f>290.428*0.01</f>
         <v>2.90428</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="N39" s="2">
@@ -18742,7 +18785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -18761,10 +18804,10 @@
       <c r="F40" s="2">
         <v>2.807E-3</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40">
         <v>407.65499999999997</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40">
         <v>70.37</v>
       </c>
       <c r="I40" s="2">
@@ -18775,13 +18818,13 @@
         <f>4.527*0.01</f>
         <v>4.5270000000000005E-2</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40">
         <v>9351.07</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40">
         <v>5.6984500000000002</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40">
         <v>0.154</v>
       </c>
       <c r="N40" s="2">
@@ -19184,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -19203,26 +19246,26 @@
       <c r="F41" s="2">
         <v>1.768E-3</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41">
         <v>473.86799999999999</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41">
         <v>74.751999999999995</v>
       </c>
       <c r="I41" s="2">
         <f>114.625*0.00001</f>
         <v>1.1462500000000001E-3</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41">
         <v>9369.85</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41">
         <v>3.6701999999999999</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41">
         <v>0.114</v>
       </c>
       <c r="N41" s="2">
@@ -19625,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -19644,25 +19687,25 @@
       <c r="F42" s="2">
         <v>2.1050000000000001E-3</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42">
         <v>352.63499999999999</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42">
         <v>69.697000000000003</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42">
         <v>1.2587E-3</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42">
         <v>5.4289999999999998E-2</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42">
         <v>9422.81</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42">
         <v>7.6110199999999999</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42">
         <v>0.10299999999999999</v>
       </c>
       <c r="N42" s="2">
@@ -20065,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -20084,26 +20127,26 @@
       <c r="F43" s="2">
         <v>1.1180000000000001E-2</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43">
         <v>80.866</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43">
         <v>25.184000000000001</v>
       </c>
       <c r="I43" s="2">
         <f>346.062*0.00001</f>
         <v>3.4606200000000002E-3</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43">
         <v>5.2089999999999997E-2</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43">
         <v>6670.72</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43">
         <v>3.46</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43">
         <v>0.13</v>
       </c>
       <c r="N43" s="2">
@@ -20503,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -20522,10 +20565,10 @@
       <c r="F44" s="2">
         <v>1.5200000000000001E-3</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44">
         <v>388.88</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44">
         <v>105.41500000000001</v>
       </c>
       <c r="I44" s="2">
@@ -20536,14 +20579,14 @@
         <f>551.095*0.00001</f>
         <v>5.5109500000000006E-3</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44">
         <v>6742</v>
       </c>
       <c r="L44" s="2">
         <f>505.782*0.01</f>
         <v>5.0578199999999995</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44">
         <v>0.11600000000000001</v>
       </c>
       <c r="N44" s="2">
@@ -20943,7 +20986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -20962,10 +21005,10 @@
       <c r="F45" s="2">
         <v>1.4970000000000001E-3</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45">
         <v>182.643</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45">
         <v>36.686</v>
       </c>
       <c r="I45" s="2">
@@ -20976,13 +21019,13 @@
         <f>979.053*0.00001</f>
         <v>9.7905300000000004E-3</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45">
         <v>8173.25</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45">
         <v>0.63621000000000005</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45">
         <v>0.29099999999999998</v>
       </c>
       <c r="N45" s="2">
@@ -21382,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>41</v>
       </c>
@@ -21401,10 +21444,10 @@
       <c r="F46" s="2">
         <v>1.6169999999999999E-3</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46">
         <v>264.15899999999999</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46">
         <v>57.195</v>
       </c>
       <c r="I46" s="2">
@@ -21415,13 +21458,13 @@
         <f>141.733*0.00001</f>
         <v>1.4173300000000001E-3</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46">
         <v>5912.82</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46">
         <v>2.5762</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46">
         <v>0.156</v>
       </c>
       <c r="N46" s="2">
@@ -21821,7 +21864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -21840,10 +21883,10 @@
       <c r="F47" s="2">
         <v>1.1360000000000001E-3</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47">
         <v>231.89</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47">
         <v>55.454999999999998</v>
       </c>
       <c r="I47" s="2">
@@ -21854,13 +21897,13 @@
         <f>115.943*0.00001</f>
         <v>1.1594300000000001E-3</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47">
         <v>5847.25</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47">
         <v>3.88402</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47">
         <v>0.16900000000000001</v>
       </c>
       <c r="N47" s="2">
@@ -22260,7 +22303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -22279,25 +22322,25 @@
       <c r="F48" s="2">
         <v>2.6370999999999999E-2</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48">
         <v>292.56099999999998</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48">
         <v>75.049000000000007</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48">
         <v>1.4120000000000001E-2</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48">
         <v>0.28810000000000002</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48">
         <v>9243.91</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48">
         <v>4.37</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48">
         <v>0.16900000000000001</v>
       </c>
       <c r="N48" s="2">
@@ -22697,7 +22740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -22716,26 +22759,26 @@
       <c r="F49" s="2">
         <v>2.6776000000000001E-2</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49">
         <v>233.678</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49">
         <v>47.603000000000002</v>
       </c>
       <c r="I49" s="2">
         <f>945.892*0.00001</f>
         <v>9.4589200000000009E-3</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49">
         <v>0.3851</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49">
         <v>9215.27</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49">
         <v>5.0469999999999997</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49">
         <v>0.125</v>
       </c>
       <c r="N49" s="2">
@@ -23135,7 +23178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -23154,26 +23197,26 @@
       <c r="F50" s="2">
         <v>2.572E-2</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50">
         <v>230.49799999999999</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50">
         <v>54.27</v>
       </c>
       <c r="I50" s="2">
         <f>838.797*0.00001</f>
         <v>8.3879700000000015E-3</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50">
         <v>0.27912999999999999</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50">
         <v>9258.5</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50">
         <v>-1.3460000000000001</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50">
         <v>0.159</v>
       </c>
       <c r="N50" s="2">
@@ -23573,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -23592,26 +23635,26 @@
       <c r="F51" s="2">
         <v>2.2929999999999999E-2</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51">
         <v>284.20699999999999</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51">
         <v>57.963000000000001</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51">
         <v>9.0874800000000002E-3</v>
       </c>
       <c r="J51" s="2">
         <f>32.516*0.01</f>
         <v>0.32516</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51">
         <v>9295.7800000000007</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51">
         <v>4.5919999999999996</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51">
         <v>0.153</v>
       </c>
       <c r="N51" s="2">
@@ -24011,7 +24054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -24030,26 +24073,26 @@
       <c r="F52" s="2">
         <v>2.1319000000000001E-2</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52">
         <v>361.774</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52">
         <v>78.195999999999998</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52">
         <f>108*0.00001</f>
         <v>1.08E-3</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52">
         <v>0.30492000000000002</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52">
         <v>9311.11</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52">
         <v>4.1509999999999998</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52">
         <v>0.156</v>
       </c>
       <c r="N52" s="2">
@@ -24449,8 +24492,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -24468,10 +24511,10 @@
       <c r="F53" s="2">
         <v>0.46991699999999997</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53">
         <v>247.88800000000001</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53">
         <v>112.017</v>
       </c>
       <c r="I53" s="2">
@@ -24482,13 +24525,13 @@
         <f>243.158*0.01</f>
         <v>2.4315799999999999</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53">
         <v>6536.84</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53">
         <v>93.186999999999998</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="N53" s="2">
@@ -24888,8 +24931,8 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="54" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
         <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -24907,26 +24950,26 @@
       <c r="F54" s="2">
         <v>9.1180000000000011E-3</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54">
         <v>297.21499999999997</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54">
         <v>76.259</v>
       </c>
       <c r="I54" s="2">
         <f>514.047*0.00001</f>
         <v>5.1404700000000003E-3</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54">
         <v>0.17175000000000001</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54">
         <v>9397.49</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54">
         <v>1.3009999999999999</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54">
         <v>0.16600000000000001</v>
       </c>
       <c r="N54" s="2">
@@ -25326,8 +25369,8 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="55" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -25345,27 +25388,27 @@
       <c r="F55" s="2">
         <v>2.9420000000000002E-3</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55">
         <v>274.262</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55">
         <v>48.106999999999999</v>
       </c>
       <c r="I55" s="2">
         <f>148.9*0.00001</f>
         <v>1.4890000000000001E-3</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55">
         <v>0.12284</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55">
         <v>9447.9500000000007</v>
       </c>
       <c r="L55" s="2">
         <f>349.148*0.01</f>
         <v>3.4914800000000001</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55">
         <v>0.121</v>
       </c>
       <c r="N55" s="2">
@@ -25765,8 +25808,8 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="56" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -25784,26 +25827,26 @@
       <c r="F56" s="2">
         <v>4.973E-3</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56">
         <v>324.55900000000003</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56">
         <v>71.721999999999994</v>
       </c>
       <c r="I56" s="2">
         <f>392.504*0.00001</f>
         <v>3.9250400000000003E-3</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56">
         <v>0.18184</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56">
         <v>9437</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56">
         <v>1.052</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56">
         <v>0.159</v>
       </c>
       <c r="N56" s="2">
@@ -26203,8 +26246,8 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="57" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -26222,26 +26265,26 @@
       <c r="F57" s="2">
         <v>2.2720000000000001E-3</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
         <v>300.81299999999999</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57">
         <v>45.887999999999998</v>
       </c>
       <c r="I57" s="2">
         <f>110.517*0.00001</f>
         <v>1.1051700000000002E-3</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57">
         <v>0.11608</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57">
         <v>9461.5</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57">
         <v>0.43095</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57">
         <v>7.8E-2</v>
       </c>
       <c r="N57" s="2">
@@ -26641,8 +26684,8 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="58" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>61</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -26660,27 +26703,27 @@
       <c r="F58" s="2">
         <v>4.3800000000000002E-3</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58">
         <v>313.87400000000002</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58">
         <v>73.006</v>
       </c>
       <c r="I58" s="2">
         <f>337.735*0.00001</f>
         <v>3.3773500000000003E-3</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58">
         <v>0.13841999999999999</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58">
         <v>9425.7999999999993</v>
       </c>
       <c r="L58" s="2">
         <f>957.505*0.00001</f>
         <v>9.5750499999999999E-3</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58">
         <v>0.156</v>
       </c>
       <c r="N58" s="2">
@@ -27080,8 +27123,8 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="59" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -27099,26 +27142,26 @@
       <c r="F59" s="2">
         <v>1.523E-3</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59">
         <v>440.64400000000001</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59">
         <v>52.845999999999997</v>
       </c>
       <c r="I59" s="2">
         <f>90.823*0.00001</f>
         <v>9.0823E-4</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59">
         <v>0.111</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59">
         <v>9485</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59">
         <v>0.28100000000000003</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59">
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="N59" s="2">
@@ -27518,8 +27561,8 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="60" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -27537,27 +27580,27 @@
       <c r="F60" s="2">
         <v>2.0769999999999999E-3</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60">
         <v>383.73599999999999</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60">
         <v>66.561000000000007</v>
       </c>
       <c r="I60" s="2">
         <f>167.759*0.00001</f>
         <v>1.6775900000000001E-3</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60">
         <v>0.12972</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60">
         <v>9463.1299999999992</v>
       </c>
       <c r="L60" s="2">
         <f>550.977*0.01</f>
         <v>5.5097699999999996</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60">
         <v>0.13800000000000001</v>
       </c>
       <c r="N60" s="2">
@@ -27957,8 +28000,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="61" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -27976,26 +28019,26 @@
       <c r="F61" s="2">
         <v>2.147E-3</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61">
         <v>236.21600000000001</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61">
         <v>36.220999999999997</v>
       </c>
       <c r="I61" s="2">
         <f>92.367*0.00001</f>
         <v>9.2367000000000013E-4</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61">
         <v>0.13616</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61">
         <v>9512.8700000000008</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61">
         <v>8.1659799999999994</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61">
         <v>0.17100000000000001</v>
       </c>
       <c r="N61" s="2">
@@ -28395,8 +28438,8 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="62" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -28414,26 +28457,26 @@
       <c r="F62" s="2">
         <v>2.1572000000000001E-2</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62">
         <v>381.65199999999999</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62">
         <v>139.74199999999999</v>
       </c>
       <c r="I62" s="2">
         <f>2.39*0.01</f>
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62">
         <v>0.16069</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62">
         <v>9065.7800000000007</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62">
         <v>4.431</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62">
         <v>0.28299999999999997</v>
       </c>
       <c r="N62" s="2">
@@ -28833,8 +28876,8 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="63" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -28852,13 +28895,13 @@
       <c r="F63" s="2">
         <v>2.5040000000000001E-3</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63">
         <v>369.13200000000001</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63">
         <v>65.927999999999997</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63">
         <f>125.279*0.00001</f>
         <v>1.2527900000000002E-3</v>
       </c>
@@ -28866,7 +28909,7 @@
         <f>8.792*0.01</f>
         <v>8.7919999999999998E-2</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63">
         <v>9452.48</v>
       </c>
       <c r="L63" s="2">
@@ -29273,943 +29316,951 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="64" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -30217,6 +30268,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100663AB788D7A8E4409C0C8F27BBECE63F" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="127f0822b766f714467baa90bfa44c3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df7f41a0-9c1e-42eb-a4a3-0247cf46dd37" xmlns:ns4="589664a6-b021-4865-b2ce-f23304a6b359" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="322b389eb35575189653dbb0f65bc017" ns3:_="" ns4:_="">
     <xsd:import namespace="df7f41a0-9c1e-42eb-a4a3-0247cf46dd37"/>
@@ -30439,22 +30505,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5D260B-095E-4152-AF52-F1FF5B6F3551}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="df7f41a0-9c1e-42eb-a4a3-0247cf46dd37"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="589664a6-b021-4865-b2ce-f23304a6b359"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F6878A-72CC-4AE9-8B1C-F8C1410FC26F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A410C129-CA3D-4C36-A2E9-6ECC28DA5122}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30471,29 +30547,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F6878A-72CC-4AE9-8B1C-F8C1410FC26F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5D260B-095E-4152-AF52-F1FF5B6F3551}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="df7f41a0-9c1e-42eb-a4a3-0247cf46dd37"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="589664a6-b021-4865-b2ce-f23304a6b359"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>